--- a/appdata/preshipped.xlsx
+++ b/appdata/preshipped.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>114-2751446-1203407</t>
+          <t>113-2172229-0756243</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HZ_HWQSGL9_4</t>
+          <t>HZ_NAYA_1, HZ_NAYA_F1B/30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -466,12 +466,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>111-7255527-2521038</t>
+          <t>111-5927847-2742614</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AL_SASHA_1B</t>
+          <t>HZ_HWUEBW18_DARKRED (EMPIRE BUNDLE)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -479,15 +479,158 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>113-0817401-7733826</t>
+          <t>112-3496928-0769033</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HZ_MILEY_T1B/BG</t>
+          <t>HZ_NAYA_F1B/30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>114-3041809-9237065</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BY_LAS NOBENY_SP430 : 2 PS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>112-9286377-6236256</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BY_KESS_3T44</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>113-3208004-7131456</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>VF_STRCHB-3pcs-330_TP30/1B : 4 PCS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>113-9832641-5866632</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>VF_FINN_TT1B/2216</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>114-7645845-4695452</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>OT_SPIRALLY_1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>114-9159337-8825056</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HZ_IWD003_1B</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>113-0941655-7079409</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>OT_MALAYSIAN CURL 12_DRGIBRN</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>111-0599276-2619465</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>OT_SOFT REGGAE BRAID_2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>111-2578363-9585819</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BY_SLB THREE_4</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>112-2845324-5412202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>OT_GENEVIVE_ROMIRCOF</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>114-0058854-8105049</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>OT_NEESHA H302_1B</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/appdata/preshipped.xlsx
+++ b/appdata/preshipped.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +474,11 @@
           <t>HZ_HWUEBW18_DARKRED (EMPIRE BUNDLE)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>qwer</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -487,7 +491,11 @@
           <t>HZ_NAYA_F1B/30</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>fdfd</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -500,7 +508,11 @@
           <t>BY_LAS NOBENY_SP430 : 2 PS</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>dfdf</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -513,82 +525,106 @@
           <t>BY_KESS_3T44</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jhjh</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>113-3208004-7131456</t>
+          <t>113-9832641-5866632</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VF_STRCHB-3pcs-330_TP30/1B : 4 PCS</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>VF_FINN_TT1B/2216</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>gfgf</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>113-9832641-5866632</t>
+          <t>114-7645845-4695452</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>VF_FINN_TT1B/2216</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>OT_SPIRALLY_1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>dfdf</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>114-7645845-4695452</t>
+          <t>114-9159337-8825056</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OT_SPIRALLY_1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>HZ_IWD003_1B</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>114-9159337-8825056</t>
+          <t>113-0941655-7079409</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HZ_IWD003_1B</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>OT_MALAYSIAN CURL 12_DRGIBRN</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>dfdf</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>113-0941655-7079409</t>
+          <t>111-0599276-2619465</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>OT_MALAYSIAN CURL 12_DRGIBRN</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>OT_SOFT REGGAE BRAID_2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>dfdf</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>111-0599276-2619465</t>
+          <t>111-2578363-9585819</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>OT_SOFT REGGAE BRAID_2</t>
+          <t>BY_SLB THREE_4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -596,41 +632,36 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>111-2578363-9585819</t>
+          <t>112-2845324-5412202</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BY_SLB THREE_4</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>OT_GENEVIVE_ROMIRCOF</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>dfdf</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>112-2845324-5412202</t>
+          <t>113-3948883-6275463</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>OT_GENEVIVE_ROMIRCOF</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>114-0058854-8105049</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>OT_NEESHA H302_1B</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>OT_ROLL UP 44PCS_4</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/appdata/preshipped.xlsx
+++ b/appdata/preshipped.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,29 +568,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>114-9159337-8825056</t>
+          <t>111-0599276-2619465</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HZ_IWD003_1B</t>
+          <t>OT_SOFT REGGAE BRAID_2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>asdf</t>
+          <t>dfdf</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>113-0941655-7079409</t>
+          <t>112-2845324-5412202</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OT_MALAYSIAN CURL 12_DRGIBRN</t>
+          <t>OT_GENEVIVE_ROMIRCOF</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -602,29 +602,29 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>111-0599276-2619465</t>
+          <t>113-3948883-6275463</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>OT_SOFT REGGAE BRAID_2</t>
+          <t>OT_ROLL UP 44PCS_4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>dfdf</t>
+          <t>asdf</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>111-2578363-9585819</t>
+          <t>113-3948883-6275463</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BY_SLB THREE_4</t>
+          <t>OT_ROLL UP 44PCS_4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -632,36 +632,41 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>112-2845324-5412202</t>
+          <t>112-3416943-6443464</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>OT_GENEVIVE_ROMIRCOF</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>dfdf</t>
-        </is>
-      </c>
+          <t>AL_NAOMI_T14/88</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>111-7272285-4097820</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HZ_IDPWKS24_2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>113-3948883-6275463</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>OT_ROLL UP 44PCS_4</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>asdf</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
